--- a/apps/load_data/2016/04/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/04/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0416\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0416\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FAE39-8816-4674-A701-E2883FCFBC82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D30DA7-939A-4510-97AD-99DAD5281C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$290</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$237</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11248" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11234" uniqueCount="2607">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6944,9 +6945,6 @@
   </si>
   <si>
     <t>0140A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    117306    1173061081    296920    2969201082    159880    1598802001         0     386002006     42200     422002026    197322    1973222086      2500      25002180       250       2502182       100       1002503        50        50</t>
@@ -8705,8 +8703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238:XFD290"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD210" sqref="AC210:AD292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44404,12 +44402,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44468,7 +44461,7 @@
         <v>110</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>2005</v>
@@ -44480,7 +44473,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>117</v>
@@ -44501,13 +44494,13 @@
         <v>108</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2312</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44542,19 +44535,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="Q211" s="3">
         <v>27241</v>
@@ -44580,12 +44573,7 @@
       <c r="AB211" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44632,7 +44620,7 @@
         <v>108</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BB211" s="1">
         <v>4</v>
@@ -44644,7 +44632,7 @@
         <v>110</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1602</v>
@@ -44659,13 +44647,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>117</v>
@@ -44689,13 +44677,13 @@
         <v>108</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1916</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44730,19 +44718,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2323</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="Q212" s="3">
         <v>25223</v>
@@ -44768,12 +44756,7 @@
       <c r="AB212" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44820,7 +44803,7 @@
         <v>108</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BB212" s="1">
         <v>4</v>
@@ -44835,10 +44818,10 @@
         <v>110</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>113</v>
@@ -44850,13 +44833,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>117</v>
@@ -44880,13 +44863,13 @@
         <v>108</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44921,19 +44904,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="Q213" s="3">
         <v>27018</v>
@@ -44956,12 +44939,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45011,7 +44989,7 @@
         <v>108</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BB213" s="1">
         <v>4</v>
@@ -45023,7 +45001,7 @@
         <v>110</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>185</v>
@@ -45035,7 +45013,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>117</v>
@@ -45053,13 +45031,13 @@
         <v>108</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45094,19 +45072,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="Q214" s="3">
         <v>29037</v>
@@ -45129,12 +45107,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45184,7 +45157,7 @@
         <v>108</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BB214" s="1">
         <v>4</v>
@@ -45196,7 +45169,7 @@
         <v>110</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>845</v>
@@ -45208,7 +45181,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>117</v>
@@ -45229,10 +45202,10 @@
         <v>663</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45267,19 +45240,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="Q215" s="3">
         <v>26647</v>
@@ -45302,12 +45275,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45357,7 +45325,7 @@
         <v>108</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BB215" s="1">
         <v>4</v>
@@ -45369,7 +45337,7 @@
         <v>110</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>185</v>
@@ -45381,7 +45349,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>117</v>
@@ -45399,13 +45367,13 @@
         <v>108</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2360</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45440,19 +45408,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="Q216" s="3">
         <v>25405</v>
@@ -45481,12 +45449,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -45533,7 +45496,7 @@
         <v>108</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BB216" s="1">
         <v>4</v>
@@ -45542,16 +45505,16 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>113</v>
@@ -45563,13 +45526,13 @@
         <v>114</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>117</v>
@@ -45587,13 +45550,13 @@
         <v>108</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45628,19 +45591,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="Q217" s="3">
         <v>28845</v>
@@ -45663,12 +45626,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45718,7 +45676,7 @@
         <v>108</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BB217" s="1">
         <v>4</v>
@@ -45730,7 +45688,7 @@
         <v>110</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>185</v>
@@ -45742,7 +45700,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>117</v>
@@ -45760,13 +45718,13 @@
         <v>108</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45801,19 +45759,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="Q218" s="3">
         <v>21425</v>
@@ -45836,12 +45794,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45891,7 +45844,7 @@
         <v>108</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BB218" s="1">
         <v>4</v>
@@ -45903,10 +45856,10 @@
         <v>110</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2391</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>113</v>
@@ -45918,7 +45871,7 @@
         <v>156</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>117</v>
@@ -45936,13 +45889,13 @@
         <v>108</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45977,19 +45930,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="Q219" s="3">
         <v>23039</v>
@@ -46012,12 +45965,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -46064,7 +46012,7 @@
         <v>108</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BB219" s="1">
         <v>4</v>
@@ -46073,16 +46021,16 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>113</v>
@@ -46094,13 +46042,13 @@
         <v>212</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>117</v>
@@ -46118,13 +46066,13 @@
         <v>108</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46159,19 +46107,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="Q220" s="3">
         <v>23286</v>
@@ -46197,12 +46145,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46252,7 +46195,7 @@
         <v>108</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BB220" s="1">
         <v>4</v>
@@ -46267,7 +46210,7 @@
         <v>110</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>185</v>
@@ -46279,7 +46222,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>117</v>
@@ -46300,13 +46243,13 @@
         <v>108</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46341,19 +46284,19 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="Q221" s="3">
         <v>26907</v>
@@ -46376,12 +46319,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -46428,7 +46366,7 @@
         <v>108</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BB221" s="1">
         <v>4</v>
@@ -46443,10 +46381,10 @@
         <v>110</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>113</v>
@@ -46458,13 +46396,13 @@
         <v>114</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>117</v>
@@ -46482,13 +46420,13 @@
         <v>108</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1734</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46523,19 +46461,19 @@
         <v>144</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="Q222" s="3">
         <v>26349</v>
@@ -46580,7 +46518,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46619,13 +46557,13 @@
         <v>110</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>117</v>
@@ -46649,10 +46587,10 @@
         <v>2198</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46687,19 +46625,19 @@
         <v>144</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2439</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2440</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="Q223" s="3">
         <v>30589</v>
@@ -46747,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46786,13 +46724,13 @@
         <v>110</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>117</v>
@@ -46813,13 +46751,13 @@
         <v>108</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46854,19 +46792,19 @@
         <v>144</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="Q224" s="3">
         <v>27354</v>
@@ -46914,7 +46852,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -46953,13 +46891,13 @@
         <v>110</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>117</v>
@@ -46980,13 +46918,13 @@
         <v>108</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="225" spans="1:84" x14ac:dyDescent="0.25">
@@ -47021,19 +46959,19 @@
         <v>144</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q225" s="3">
         <v>13756</v>
@@ -47117,13 +47055,13 @@
         <v>110</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>117</v>
@@ -47144,10 +47082,10 @@
         <v>108</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>203</v>
@@ -47185,19 +47123,19 @@
         <v>144</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="Q226" s="3">
         <v>26074</v>
@@ -47245,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47284,13 +47222,13 @@
         <v>110</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>117</v>
@@ -47314,13 +47252,13 @@
         <v>108</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="227" spans="1:84" x14ac:dyDescent="0.25">
@@ -47355,19 +47293,19 @@
         <v>144</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="Q227" s="3">
         <v>28808</v>
@@ -47412,7 +47350,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -47451,13 +47389,13 @@
         <v>110</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>117</v>
@@ -47478,13 +47416,13 @@
         <v>108</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2477</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2383</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="228" spans="1:84" x14ac:dyDescent="0.25">
@@ -47519,19 +47457,19 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="Q228" s="3">
         <v>23125</v>
@@ -47564,7 +47502,7 @@
         <v>42247</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>103</v>
@@ -47624,10 +47562,10 @@
         <v>110</v>
       </c>
       <c r="BH228" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>113</v>
@@ -47639,13 +47577,13 @@
         <v>212</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BS228" s="3">
         <v>36580</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>117</v>
@@ -47666,7 +47604,7 @@
         <v>108</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>300</v>
@@ -47707,19 +47645,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="Q229" s="3">
         <v>24907</v>
@@ -47800,13 +47738,13 @@
         <v>110</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="BI229" s="1" t="s">
+      <c r="BJ229" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="BJ229" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>113</v>
@@ -47821,7 +47759,7 @@
         <v>35679</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>117</v>
@@ -47839,7 +47777,7 @@
         <v>89</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>268</v>
@@ -47880,19 +47818,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2499</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2500</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="Q230" s="3">
         <v>28642</v>
@@ -47967,7 +47905,7 @@
         <v>108</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BB230" s="1">
         <v>4</v>
@@ -47979,7 +47917,7 @@
         <v>110</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>113</v>
@@ -47991,7 +47929,7 @@
         <v>156</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>117</v>
@@ -48009,13 +47947,13 @@
         <v>108</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>432</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="231" spans="1:84" x14ac:dyDescent="0.25">
@@ -48050,19 +47988,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="Q231" s="3">
         <v>28239</v>
@@ -48134,7 +48072,7 @@
         <v>108</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BB231" s="1">
         <v>4</v>
@@ -48146,7 +48084,7 @@
         <v>110</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1786</v>
@@ -48161,13 +48099,13 @@
         <v>212</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>117</v>
@@ -48185,13 +48123,13 @@
         <v>108</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="232" spans="1:84" x14ac:dyDescent="0.25">
@@ -48226,19 +48164,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="Q232" s="3">
         <v>25589</v>
@@ -48310,7 +48248,7 @@
         <v>108</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BB232" s="1">
         <v>4</v>
@@ -48322,7 +48260,7 @@
         <v>110</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1806</v>
@@ -48337,13 +48275,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>117</v>
@@ -48361,13 +48299,13 @@
         <v>108</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="233" spans="1:84" x14ac:dyDescent="0.25">
@@ -48402,19 +48340,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="Q233" s="3">
         <v>29170</v>
@@ -48489,7 +48427,7 @@
         <v>108</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BB233" s="1">
         <v>4</v>
@@ -48501,7 +48439,7 @@
         <v>110</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>113</v>
@@ -48510,7 +48448,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>117</v>
@@ -48528,13 +48466,13 @@
         <v>108</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>847</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="234" spans="1:84" x14ac:dyDescent="0.25">
@@ -48569,19 +48507,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P234" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Q234" s="3">
         <v>27250</v>
@@ -48611,7 +48549,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1848</v>
@@ -48656,7 +48594,7 @@
         <v>108</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BB234" s="1">
         <v>4</v>
@@ -48668,7 +48606,7 @@
         <v>110</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>113</v>
@@ -48677,7 +48615,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>117</v>
@@ -48698,10 +48636,10 @@
         <v>1532</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="235" spans="1:84" x14ac:dyDescent="0.25">
@@ -48736,19 +48674,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P235" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="Q235" s="3">
         <v>27999</v>
@@ -48823,7 +48761,7 @@
         <v>108</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BB235" s="1">
         <v>4</v>
@@ -48835,7 +48773,7 @@
         <v>110</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>113</v>
@@ -48844,7 +48782,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>117</v>
@@ -48868,7 +48806,7 @@
         <v>919</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="236" spans="1:84" x14ac:dyDescent="0.25">
@@ -48903,19 +48841,19 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P236" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="Q236" s="3">
         <v>29305</v>
@@ -48948,7 +48886,7 @@
         <v>637</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>108</v>
@@ -48990,7 +48928,7 @@
         <v>108</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BB236" s="1">
         <v>4</v>
@@ -49002,7 +48940,7 @@
         <v>110</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>113</v>
@@ -49011,7 +48949,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>117</v>
@@ -49029,13 +48967,13 @@
         <v>108</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="237" spans="1:84" x14ac:dyDescent="0.25">
@@ -49070,19 +49008,19 @@
         <v>144</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="P237" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R237" s="1" t="s">
         <v>131</v>
@@ -49118,7 +49056,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -49151,13 +49089,13 @@
         <v>110</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>117</v>
@@ -49175,13 +49113,13 @@
         <v>108</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>311</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="238" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -49330,7 +49268,7 @@
         <v>110</v>
       </c>
       <c r="BH238" s="4" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BI238" s="4"/>
       <c r="BJ238" s="4"/>
@@ -49531,7 +49469,7 @@
         <v>110</v>
       </c>
       <c r="BH239" s="4" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BI239" s="4"/>
       <c r="BJ239" s="4"/>
@@ -49922,7 +49860,7 @@
         <v>110</v>
       </c>
       <c r="BH241" s="4" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BI241" s="4"/>
       <c r="BJ241" s="4"/>
@@ -50527,7 +50465,7 @@
         <v>110</v>
       </c>
       <c r="BH244" s="4" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BI244" s="4"/>
       <c r="BJ244" s="4"/>
@@ -50721,7 +50659,7 @@
         <v>110</v>
       </c>
       <c r="BH245" s="4" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BI245" s="4"/>
       <c r="BJ245" s="4"/>
@@ -50913,7 +50851,7 @@
         <v>110</v>
       </c>
       <c r="BH246" s="4" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI246" s="4"/>
       <c r="BJ246" s="4"/>
@@ -51107,7 +51045,7 @@
         <v>110</v>
       </c>
       <c r="BH247" s="4" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BI247" s="4"/>
       <c r="BJ247" s="4"/>
@@ -51299,7 +51237,7 @@
         <v>110</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -51491,7 +51429,7 @@
         <v>110</v>
       </c>
       <c r="BH249" s="4" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI249" s="4"/>
       <c r="BJ249" s="4"/>
@@ -51875,7 +51813,7 @@
         <v>110</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -52071,7 +52009,7 @@
         <v>110</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -52455,7 +52393,7 @@
         <v>110</v>
       </c>
       <c r="BH254" s="4" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BI254" s="4"/>
       <c r="BJ254" s="4"/>
@@ -52647,7 +52585,7 @@
         <v>110</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -52839,7 +52777,7 @@
         <v>110</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -53031,7 +52969,7 @@
         <v>110</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -53235,7 +53173,7 @@
         <v>110</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -53434,7 +53372,7 @@
         <v>110</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -53636,7 +53574,7 @@
         <v>110</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -53840,7 +53778,7 @@
         <v>110</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -54044,7 +53982,7 @@
         <v>110</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -54247,7 +54185,7 @@
         <v>110</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -54442,7 +54380,7 @@
         <v>110</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -54650,7 +54588,7 @@
         <v>110</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -54850,7 +54788,7 @@
         <v>110</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -55049,7 +54987,7 @@
         <v>110</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -55243,7 +55181,7 @@
         <v>110</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -55435,7 +55373,7 @@
         <v>110</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -55636,7 +55574,7 @@
         <v>110</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -55826,7 +55764,7 @@
         <v>110</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -56023,7 +55961,7 @@
         <v>110</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -56220,7 +56158,7 @@
         <v>110</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -56420,7 +56358,7 @@
         <v>110</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -56621,7 +56559,7 @@
         <v>110</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -56813,7 +56751,7 @@
         <v>110</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -57005,7 +56943,7 @@
         <v>110</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -57198,7 +57136,7 @@
         <v>110</v>
       </c>
       <c r="BH278" s="4" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BI278" s="4"/>
       <c r="BJ278" s="4"/>
@@ -57390,7 +57328,7 @@
         <v>110</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -57591,7 +57529,7 @@
         <v>110</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -57979,7 +57917,7 @@
         <v>110</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -58175,7 +58113,7 @@
         <v>110</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -58369,7 +58307,7 @@
         <v>110</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -58449,14 +58387,14 @@
         <v>93</v>
       </c>
       <c r="K285" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="L285" s="4" t="s">
         <v>2313</v>
-      </c>
-      <c r="L285" s="4" t="s">
-        <v>2314</v>
       </c>
       <c r="M285" s="4"/>
       <c r="N285" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="O285" s="4" t="s">
         <v>97</v>
@@ -58491,12 +58429,8 @@
       <c r="AB285" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="AC285" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD285" s="4" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC285" s="5"/>
+      <c r="AD285" s="4"/>
       <c r="AF285" s="4" t="s">
         <v>103</v>
       </c>
@@ -58550,7 +58484,7 @@
         <v>108</v>
       </c>
       <c r="AZ285" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BA285" s="4" t="s">
         <v>279</v>
@@ -58568,7 +58502,7 @@
         <v>110</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -58584,13 +58518,13 @@
       <c r="BP285" s="4"/>
       <c r="BQ285" s="4"/>
       <c r="BR285" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BS285" s="5">
         <v>36949</v>
       </c>
       <c r="BT285" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BU285" s="4" t="s">
         <v>117</v>
@@ -58615,13 +58549,13 @@
         <v>108</v>
       </c>
       <c r="CC285" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="CD285" s="4" t="s">
         <v>1916</v>
       </c>
       <c r="CE285" s="4" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="CF285" s="4"/>
     </row>
@@ -58657,14 +58591,14 @@
         <v>93</v>
       </c>
       <c r="K286" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="L286" s="4" t="s">
         <v>2323</v>
-      </c>
-      <c r="L286" s="4" t="s">
-        <v>2324</v>
       </c>
       <c r="M286" s="4"/>
       <c r="N286" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="O286" s="4" t="s">
         <v>97</v>
@@ -58699,12 +58633,8 @@
       <c r="AB286" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="AC286" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD286" s="4" t="s">
-        <v>2307</v>
-      </c>
+      <c r="AC286" s="5"/>
+      <c r="AD286" s="4"/>
       <c r="AF286" s="4" t="s">
         <v>103</v>
       </c>
@@ -58758,7 +58688,7 @@
         <v>108</v>
       </c>
       <c r="AZ286" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BA286" s="4" t="s">
         <v>279</v>
@@ -58778,7 +58708,7 @@
         <v>110</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -58794,13 +58724,13 @@
       <c r="BP286" s="4"/>
       <c r="BQ286" s="4"/>
       <c r="BR286" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BS286" s="5">
         <v>36825</v>
       </c>
       <c r="BT286" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BU286" s="4" t="s">
         <v>117</v>
@@ -58825,13 +58755,13 @@
         <v>108</v>
       </c>
       <c r="CC286" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="CD286" s="4" t="s">
         <v>2332</v>
       </c>
-      <c r="CD286" s="4" t="s">
+      <c r="CE286" s="4" t="s">
         <v>2333</v>
-      </c>
-      <c r="CE286" s="4" t="s">
-        <v>2334</v>
       </c>
       <c r="CF286" s="4"/>
     </row>
@@ -58867,14 +58797,14 @@
         <v>144</v>
       </c>
       <c r="K287" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="L287" s="4" t="s">
         <v>2438</v>
-      </c>
-      <c r="L287" s="4" t="s">
-        <v>2439</v>
       </c>
       <c r="M287" s="4"/>
       <c r="N287" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="O287" s="4" t="s">
         <v>97</v>
@@ -58933,7 +58863,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO287" s="4">
         <v>0</v>
@@ -58981,7 +58911,7 @@
         <v>110</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -58996,7 +58926,7 @@
       <c r="BQ287" s="4"/>
       <c r="BR287" s="4"/>
       <c r="BT287" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BU287" s="4" t="s">
         <v>117</v>
@@ -59019,13 +58949,13 @@
         <v>108</v>
       </c>
       <c r="CC287" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CD287" s="4" t="s">
         <v>2444</v>
       </c>
-      <c r="CD287" s="4" t="s">
+      <c r="CE287" s="4" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE287" s="4" t="s">
-        <v>2446</v>
       </c>
       <c r="CF287" s="4"/>
     </row>
@@ -59061,14 +58991,14 @@
         <v>144</v>
       </c>
       <c r="K288" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L288" s="4" t="s">
         <v>2447</v>
-      </c>
-      <c r="L288" s="4" t="s">
-        <v>2448</v>
       </c>
       <c r="M288" s="4"/>
       <c r="N288" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="O288" s="4" t="s">
         <v>97</v>
@@ -59127,7 +59057,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO288" s="4">
         <v>0</v>
@@ -59175,7 +59105,7 @@
         <v>110</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -59190,7 +59120,7 @@
       <c r="BQ288" s="4"/>
       <c r="BR288" s="4"/>
       <c r="BT288" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BU288" s="4" t="s">
         <v>117</v>
@@ -59213,13 +59143,13 @@
         <v>108</v>
       </c>
       <c r="CC288" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="CD288" s="4" t="s">
         <v>2453</v>
       </c>
-      <c r="CD288" s="4" t="s">
+      <c r="CE288" s="4" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE288" s="4" t="s">
-        <v>2455</v>
       </c>
       <c r="CF288" s="4"/>
     </row>
@@ -59255,14 +59185,14 @@
         <v>144</v>
       </c>
       <c r="K289" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L289" s="4" t="s">
         <v>2463</v>
-      </c>
-      <c r="L289" s="4" t="s">
-        <v>2464</v>
       </c>
       <c r="M289" s="4"/>
       <c r="N289" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="O289" s="4" t="s">
         <v>97</v>
@@ -59321,7 +59251,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AO289" s="4">
         <v>0</v>
@@ -59369,7 +59299,7 @@
         <v>110</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -59384,7 +59314,7 @@
       <c r="BQ289" s="4"/>
       <c r="BR289" s="4"/>
       <c r="BT289" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU289" s="4" t="s">
         <v>117</v>
@@ -59409,13 +59339,13 @@
         <v>108</v>
       </c>
       <c r="CC289" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CD289" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="CE289" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="CF289" s="4"/>
     </row>
@@ -59451,14 +59381,14 @@
         <v>93</v>
       </c>
       <c r="K290" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L290" s="4" t="s">
         <v>2498</v>
-      </c>
-      <c r="L290" s="4" t="s">
-        <v>2499</v>
       </c>
       <c r="M290" s="4"/>
       <c r="N290" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="O290" s="4" t="s">
         <v>97</v>
@@ -59549,7 +59479,7 @@
         <v>108</v>
       </c>
       <c r="AZ290" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BA290" s="4" t="s">
         <v>279</v>
@@ -59567,7 +59497,7 @@
         <v>110</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -59584,7 +59514,7 @@
       <c r="BQ290" s="4"/>
       <c r="BR290" s="4"/>
       <c r="BT290" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU290" s="4" t="s">
         <v>117</v>
@@ -59605,17 +59535,18 @@
         <v>108</v>
       </c>
       <c r="CC290" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CD290" s="4" t="s">
         <v>432</v>
       </c>
       <c r="CE290" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="CF290" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF290" xr:uid="{2ACCF6BF-9632-4937-A146-49FEA566B818}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>